--- a/src/main/resources/womenBoohooSweater.xlsx
+++ b/src/main/resources/womenBoohooSweater.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="117">
-  <si>
-    <t>Category</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="162">
+  <si>
+    <t>Id</t>
   </si>
   <si>
     <t>Image</t>
@@ -32,298 +32,430 @@
     <t>URL</t>
   </si>
   <si>
-    <t>WOMEN SWEATER</t>
+    <t>women_boohoo_sweater_1</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz67049_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>Boohoo</t>
+  </si>
+  <si>
+    <t>HOOK AND EYE LOOSE KNITTED WAISTCOAT</t>
+  </si>
+  <si>
+    <t>$32.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/hook-and-eye-loose-knitted-waistcoat/GZZ67049.html?color=105</t>
+  </si>
+  <si>
+    <t>women_boohoo_sweater_2</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/fzz45570_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>LACE UP SIDE SWEATER TANK TOP</t>
+  </si>
+  <si>
+    <t>$15.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/lace-up-side-sweater-vest/FZZ45570.html?color=131</t>
+  </si>
+  <si>
+    <t>women_boohoo_sweater_3</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz56876_ivory_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OVERSIZED COLLAR SWEATER</t>
+  </si>
+  <si>
+    <t>$40.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/womens/knitwear/GZZ56876.html?color=133</t>
+  </si>
+  <si>
+    <t>women_boohoo_sweater_4</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz56876_mocha_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/womens/knitwear/GZZ56876.html?color=197</t>
+  </si>
+  <si>
+    <t>women_boohoo_sweater_5</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz40240_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>ACID WASH SWEATER TRACKSUIT</t>
+  </si>
+  <si>
+    <t>$58.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/acid-wash-sweater-tracksuit-/GZZ40240.html?color=115</t>
+  </si>
+  <si>
+    <t>women_boohoo_sweater_6</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/fzz61405_ivory_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BLACK ROUND NECK LIGHTWEIGHT SWEATER</t>
+  </si>
+  <si>
+    <t>$37.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/round-neck-lightweight-jumper/FZZ61405.html?color=133</t>
+  </si>
+  <si>
+    <t>women_boohoo_sweater_7</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/fzz61405_silver%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>$26.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/round-neck-lightweight-jumper/FZZ61405.html?color=769</t>
+  </si>
+  <si>
+    <t>women_boohoo_sweater_8</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz55439_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SOFT KNIT STRIPE POLO COLLAR SWEATER</t>
+  </si>
+  <si>
+    <t>$53.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/womens/knitwear/GZZ55439.html?color=124</t>
+  </si>
+  <si>
+    <t>women_boohoo_sweater_9</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz55254_cobalt_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>HALF ZIP FUNNEL NECK STRIPE SWEATER</t>
+  </si>
+  <si>
+    <t>$36.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/womens/knitwear/GZZ55254.html?color=119</t>
+  </si>
+  <si>
+    <t>women_boohoo_sweater_10</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/fzz38525_green_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BALLOON SLEEVE SWEATER</t>
+  </si>
+  <si>
+    <t>$27.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/balloon-sleeve-jumper/FZZ38525.html?color=130</t>
+  </si>
+  <si>
+    <t>women_boohoo_sweater_11</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz31978_ash%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>WARDROBE ESSENTIALS SLOGAN SWEATER TRACKSUIT</t>
+  </si>
+  <si>
+    <t>$66.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/wardrobe-essentials-slogan-sweater-tracksuit/GZZ31978.html?color=978</t>
+  </si>
+  <si>
+    <t>women_boohoo_sweater_12</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz56494_sky%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TURTLENECK OVERSIZED KNITTED SWEATER</t>
+  </si>
+  <si>
+    <t>$30.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/roll-neck-oversized-knitted-jumper/GZZ56494.html?color=991</t>
+  </si>
+  <si>
+    <t>women_boohoo_sweater_13</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz79201_denim_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>OMBRE SHEER FINE GAUGE JUMPER</t>
+  </si>
+  <si>
+    <t>$50.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/ombre-sheer-fine-gauge-jumper/GZZ79201.html?color=263</t>
+  </si>
+  <si>
+    <t>women_boohoo_sweater_14</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz36482_camel_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BASIC TURTLENECK KNITTED SWEATER</t>
+  </si>
+  <si>
+    <t>$25.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/basic-roll-neck-knitted-jumper/GZZ36482.html?color=111</t>
+  </si>
+  <si>
+    <t>women_boohoo_sweater_15</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz61008_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>MIXED SOFT RIB KNIT POLO COLLAR SWEATER</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/mixed-soft-rib-knit-polo-collar-jumper/GZZ61008.html?color=124</t>
+  </si>
+  <si>
+    <t>women_boohoo_sweater_16</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/pzz72902_ivory_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS SWEATER WITH V NECK DETAIL FRONT AND BACK</t>
+  </si>
+  <si>
+    <t>$43.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-jumper-with-v-neck-detail-front-and-back/PZZ72902.html?color=133</t>
+  </si>
+  <si>
+    <t>women_boohoo_sweater_17</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/fzz17735_forest_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>CALIFORNIA SUPER OVERSIZED SWEATER</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/california-super-oversized-sweater/FZZ17735.html?color=572</t>
+  </si>
+  <si>
+    <t>women_boohoo_sweater_18</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz57643_ivory_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SOFT KNIT SLOUCHY SWEATER</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/womens/knitwear/GZZ57643.html?color=133</t>
+  </si>
+  <si>
+    <t>women_boohoo_sweater_19</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/pzz60873_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS SIDE SPLIT MOSS STITCH SWEATER</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-side-split-moss-stitch-jumper/PZZ60873.html?color=105</t>
+  </si>
+  <si>
+    <t>women_boohoo_sweater_20</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz18801_cream_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>DEEP V KNITTED CRICKET SWEATER</t>
+  </si>
+  <si>
+    <t>$74.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/deep-v-knitted-cricket-jumper/GZZ18801.html?color=123</t>
+  </si>
+  <si>
+    <t>women_boohoo_sweater_21</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz41908_camel_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>KNITTED TURTLENECK SWEATER</t>
+  </si>
+  <si>
+    <t>$60.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/knitted-roll-neck-jumper/GZZ41908.html?color=111</t>
+  </si>
+  <si>
+    <t>women_boohoo_sweater_22</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz55453_ivory_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SOFT KNIT STRIPE SWEATER &amp; MAXI SKIRT SET</t>
+  </si>
+  <si>
+    <t>$22.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/soft-knit-stripe-sweater-maxi-skirt-set/GZZ55453.html?color=133</t>
+  </si>
+  <si>
+    <t>women_boohoo_sweater_23</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz55440_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>SOFT KNIT STRIPE SWEATER</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/womens/knitwear/GZZ55440.html?color=105</t>
+  </si>
+  <si>
+    <t>women_boohoo_sweater_24</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz26783_red_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL RIBBON CHRISTMAS SWEATER</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-ribbon-christmas-jumper/GZZ26783.html?color=157</t>
+  </si>
+  <si>
+    <t>women_boohoo_sweater_25</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz35213_orange_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>CABLE KNIT CROP SWEATER</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/cable-knit-crop-jumper/GZZ35213.html?color=152</t>
+  </si>
+  <si>
+    <t>women_boohoo_sweater_26</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/pzz72902_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-jumper-with-v-neck-detail-front-and-back/PZZ72902.html?color=105</t>
+  </si>
+  <si>
+    <t>women_boohoo_sweater_27</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz56494_cream_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>$46.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/roll-neck-oversized-knitted-jumper/GZZ56494.html?color=123</t>
+  </si>
+  <si>
+    <t>women_boohoo_sweater_28</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz17593_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>HALF ZIP STRIPE TUNIC SWEATER</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/half-zip-stripe-tunic-jumper/GZZ17593.html?color=105</t>
+  </si>
+  <si>
+    <t>women_boohoo_sweater_29</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz55464_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>MARL SOFT KNIT WRAP SWEATER</t>
+  </si>
+  <si>
+    <t>$38.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/womens/knitwear/GZZ55464.html</t>
+  </si>
+  <si>
+    <t>women_boohoo_sweater_30</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/gzz57636_cream_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
   </si>
   <si>
-    <t>Boohoo</t>
-  </si>
-  <si>
     <t>SOFT KNIT LONGLINE SWEATER</t>
   </si>
   <si>
-    <t>$32.50</t>
-  </si>
-  <si>
     <t>https://ca.boohoo.com/womens/knitwear/GZZ57636.html?color=123</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz67049_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>HOOK AND EYE LOOSE KNITTED WAISTCOAT</t>
-  </si>
-  <si>
-    <t>$15.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/hook-and-eye-loose-knitted-waistcoat/GZZ67049.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/fzz45570_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>LACE UP SIDE SWEATER TANK TOP</t>
-  </si>
-  <si>
-    <t>$40.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/lace-up-side-sweater-vest/FZZ45570.html?color=131</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz56876_mocha_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>OVERSIZED COLLAR SWEATER</t>
-  </si>
-  <si>
-    <t>$58.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/womens/knitwear/GZZ56876.html?color=197</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz40240_charcoal_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>ACID WASH SWEATER TRACKSUIT</t>
-  </si>
-  <si>
-    <t>$37.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/acid-wash-sweater-tracksuit-/GZZ40240.html?color=115</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/fzz61405_ivory_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BLACK ROUND NECK LIGHTWEIGHT SWEATER</t>
-  </si>
-  <si>
-    <t>$22.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/round-neck-lightweight-jumper/FZZ61405.html?color=133</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/fzz45570_rust_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>$53.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/lace-up-side-sweater-vest/FZZ45570.html?color=208</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz55439_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SOFT KNIT STRIPE POLO COLLAR SWEATER</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/womens/knitwear/GZZ55439.html?color=124</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz56647_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SOFT KNIT OVERSIZED CREW NECK SWEATER</t>
-  </si>
-  <si>
-    <t>$30.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/womens/knitwear/GZZ56647.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz56566_khaki_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SOFT KNIT JUMPER</t>
-  </si>
-  <si>
-    <t>$26.50</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/soft-knit-jumper/GZZ56566.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/fzz61405_silver%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>$36.50</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/round-neck-lightweight-jumper/FZZ61405.html?color=769</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz55456_cream_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>HIGH NECK BALLOON SLEEVE OVERSIZED SWEATER</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/womens/knitwear/GZZ55456.html?color=123</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz55254_cobalt_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>HALF ZIP FUNNEL NECK STRIPE SWEATER</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/womens/knitwear/GZZ55254.html?color=119</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz55432_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>WIDE STRIPE RIB KNIT FINE GAUGE SWEATER</t>
-  </si>
-  <si>
-    <t>$25.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/womens/knitwear/GZZ55432.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz56876_ivory_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/womens/knitwear/GZZ56876.html?color=133</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz56494_cream_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TURTLENECK OVERSIZED KNITTED SWEATER</t>
-  </si>
-  <si>
-    <t>$46.50</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/roll-neck-oversized-knitted-jumper/GZZ56494.html?color=123</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz36482_camel_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BASIC TURTLENECK KNITTED SWEATER</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/basic-roll-neck-knitted-jumper/GZZ36482.html?color=111</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz40949_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>HIGH NECK STRIPE SWEATER</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/high-neck-stripe-jumper/GZZ40949.html?color=173</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz56887_camel_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>SOFT RIB KNIT HIGH NECK SWEATER</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/womens/knitwear/GZZ56887.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz17593_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>HALF ZIP STRIPE TUNIC SWEATER</t>
-  </si>
-  <si>
-    <t>$27.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/half-zip-stripe-tunic-jumper/GZZ17593.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz61008_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>MIXED SOFT RIB KNIT POLO COLLAR SWEATER</t>
-  </si>
-  <si>
-    <t>$66.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/mixed-soft-rib-knit-polo-collar-jumper/GZZ61008.html?color=124</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz41908_camel_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>KNITTED TURTLENECK SWEATER</t>
-  </si>
-  <si>
-    <t>$50.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/knitted-roll-neck-jumper/GZZ41908.html?color=111</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz88858_ivory_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>ALL OVER BOW APPLIQUE JUMPER</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/all-over-bow-applique-jumper-/GZZ88858.html?color=133</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz18801_cream_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>DEEP V KNITTED CRICKET SWEATER</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/deep-v-knitted-cricket-jumper/GZZ18801.html?color=123</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/fzz82260_biscuit_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>FISHERMAN CREW NECK SWEATER</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/fisherman-crew-neck-jumper/FZZ82260.html?color=180</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz35493_olive_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>MATERNITY CREW NECK SWEATER</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/maternity-crew-neck-jumper/GZZ35493.html?color=151</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz31978_ash%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>WARDROBE ESSENTIALS SLOGAN SWEATER TRACKSUIT</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/wardrobe-essentials-slogan-sweater-tracksuit/GZZ31978.html?color=978</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz77634_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TEXTURED STRIPE JUMPER</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/textured-stripe-jumper/GZZ77634.html?color=105</t>
+    <t>women_boohoo_sweater_31</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/fzz81036_cream_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TURTLENECK KNITTED SWEATER</t>
+  </si>
+  <si>
+    <t>$47.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/roll-neck-knitted-jumper/FZZ81036.html?color=123</t>
+  </si>
+  <si>
+    <t>women_boohoo_sweater_32</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/gzz74772_ivory_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -335,34 +467,37 @@
     <t>https://ca.boohoo.com/soft-knit-stripe-polo-collar-jumper/GZZ74772.html?color=133</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz48260_camel_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>MATERNITY SOFT KNIT SIDE SPLIT SWEATER</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/maternity-soft-knit-side-split-jumper/GZZ48260.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/pzz63230_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS V NECK V BACK OVERSIZED SWEATER</t>
-  </si>
-  <si>
-    <t>$47.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-v-neck-v-back-oversized-jumper/PZZ63230.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz63774_red_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>DANCING REINDEER CROP CHRISTMAS JUMPER</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/dancing-reindeer-crop-christmas-jumper/GZZ63774.html?color=157</t>
+    <t>women_boohoo_sweater_33</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/pzz76949_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS BOAT NECK FISHERMAN SWEATER</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-slash-neck-fisherman-jumper/PZZ76949.html?color=105</t>
+  </si>
+  <si>
+    <t>women_boohoo_sweater_34</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz67070_pink_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PETITE OVERSIZE CHUNKY KNIT STRIPE SWEATER</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/petite-oversize-chunky-knit-stripe-jumper/GZZ67070.html?color=155</t>
+  </si>
+  <si>
+    <t>women_boohoo_sweater_35</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/pzz60873_bright%20pink_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-side-split-moss-stitch-jumper/PZZ60873.html?color=658</t>
   </si>
 </sst>
 </file>
@@ -407,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -455,622 +590,682 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>22</v>
-      </c>
       <c r="F5" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="C8" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>17</v>
-      </c>
       <c r="E8" t="s" s="0">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>67</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>77</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>85</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>88</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>91</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>94</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>97</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>100</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>103</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>106</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>6</v>
+        <v>138</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>109</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>6</v>
+        <v>142</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>116</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="F34" t="s" s="0">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="F35" t="s" s="0">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="F36" t="s" s="0">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/womenBoohooSweater.xlsx
+++ b/src/main/resources/womenBoohooSweater.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="159">
   <si>
     <t>Id</t>
   </si>
@@ -489,15 +489,6 @@
   </si>
   <si>
     <t>https://ca.boohoo.com/petite-oversize-chunky-knit-stripe-jumper/GZZ67070.html?color=155</t>
-  </si>
-  <si>
-    <t>women_boohoo_sweater_35</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/pzz60873_bright%20pink_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-side-split-moss-stitch-jumper/PZZ60873.html?color=658</t>
   </si>
 </sst>
 </file>
@@ -542,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1242,30 +1233,10 @@
         <v>157</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s" s="0">
         <v>158</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="0">
-        <v>159</v>
-      </c>
-      <c r="B36" t="s" s="0">
-        <v>160</v>
-      </c>
-      <c r="C36" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D36" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="E36" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="F36" t="s" s="0">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
